--- a/enumerate/Item_Type.xlsx
+++ b/enumerate/Item_Type.xlsx
@@ -111,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -133,13 +149,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -147,14 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -163,61 +193,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +233,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,21 +271,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,43 +286,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF48A088"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,49 +448,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,97 +476,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,6 +527,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -509,6 +553,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,39 +598,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,142 +618,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1048,27 +1080,28 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/enumerate/Item_Type.xlsx
+++ b/enumerate/Item_Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="item_type" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>列举</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>卡牌</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>经验</t>
   </si>
 </sst>
 </file>
@@ -134,14 +146,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,59 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,20 +169,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -246,11 +199,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,55 +310,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,85 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,31 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +543,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,8 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,8 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,15 +610,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -606,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,12 +1087,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1209,6 +1221,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/enumerate/Item_Type.xlsx
+++ b/enumerate/Item_Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="item_type" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>列举</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>经验</t>
+  </si>
+  <si>
+    <t>change_name</t>
+  </si>
+  <si>
+    <t>改名卡</t>
   </si>
 </sst>
 </file>
@@ -123,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -146,16 +152,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,9 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,98 +212,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,6 +242,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -310,181 +316,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,21 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -539,6 +530,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,21 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -587,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,145 +624,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,12 +1093,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1237,6 +1243,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
